--- a/Output/Reporte_2020_MINISTERIO DE DESARROLLO ECONÓMICO Y PRODUCCIÓN.xlsx
+++ b/Output/Reporte_2020_MINISTERIO DE DESARROLLO ECONÓMICO Y PRODUCCIÓN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16ed0ccba9cd48a3/SOLCITO/PROGRAMACION/KPMG/RPA-UiPath-Semana1/Ejercicio Integrador Semana 1/Ejercicio Integrador Semana 1/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{819E10B8-94C8-4260-AFD3-D7704F36828B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{744D3702-95CA-45D6-974C-26AD42015A02}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{819E10B8-94C8-4260-AFD3-D7704F36828B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{377AAA30-329F-40D9-B209-054E04CDBF97}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="3202" windowWidth="7695" windowHeight="4771" xr2:uid="{A2DA9467-A94B-4836-ACE5-2CC0F7CE39D1}"/>
+    <workbookView xWindow="8587" yWindow="3540" windowWidth="7696" windowHeight="4770" activeTab="1" xr2:uid="{A2DA9467-A94B-4836-ACE5-2CC0F7CE39D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Jurisdiccion</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>MINISTERIO DE DESARROLLO ECONÓMICO Y PRODUCCIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios para la Higiene S.A </t>
+  </si>
+  <si>
+    <t>30-71158542-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUA LAVANDINA (HIPOCLORITO DE SODIO) Líquido amarillento, que puede contener un ligero sedimento, utilizando en el blanqueo y desinfección de ropas y demás materiales de uso doméstico.     Tendrá un  contenido mínimo entre 55 g/l y 80 g/l de cloro activo y los demás componentes de acuerdo a las exigencias de la Norma IRAM Nº 41.173 parte I, II, III, IV, V y VI.    En envase plástico de polietileno virgen  de alta densidad, de color u opacidad tal que no permita el paso de la luz. Su cierre hermético de seguridad no presentará pérdidas durante su manipuleo  y/o estiba. Espesor mínimo del envase 500 µ.    Nota: no es conveniente efectuar los pedidos excesivamente grandes,  debido a la pérdida de cloro activo. Los mismos deberán realizarse calculando su consumo dentro de los 120 días aproximadamente. El almacenaje será en lo posible en lugar oscuro.    El ACONDICIONAMIENTO Y CAPACIDAD DE LOS ENVASES QUEDARA A CARGO DE LA REPARTICIÓN USUARIA.   Modelo: Tipo I, con un contenido mínimo entre 55 g/l y 80 g/l de cloro activo Presentacion: Envase plástico de polietileno virgen de alta densidad (espesor mínimo 500 µ.), color/opacidad que no permita el paso de la luz, cierre hermético de seguridad, sin pérdidas por manipuleo y/o estiba Tipo: I </t>
   </si>
 </sst>
 </file>
@@ -188,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -196,13 +205,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBAB0B3-976C-4A22-80DF-6963064C51BB}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -532,30 +542,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="16.899999999999999" x14ac:dyDescent="0.65">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
-        <v>44744</v>
+      <c r="B4" s="7">
+        <v>44775</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -575,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -589,7 +599,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>63100</v>
       </c>
     </row>
   </sheetData>
@@ -605,9 +615,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0DA34C-081E-49FC-BC42-435812368D1D}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
@@ -644,6 +654,29 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="8">
+        <v>43987</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>63100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
